--- a/biology/Zoologie/Colombe_de_Geoffroy/Colombe_de_Geoffroy.xlsx
+++ b/biology/Zoologie/Colombe_de_Geoffroy/Colombe_de_Geoffroy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Claravis geoffroyi
 La Colombe de Geoffroy (Paraclaravis geoffroyi,  syn. Claravis geoffroyi, Claravis godefrida) est une espèce d'oiseau appartenant à la famille des Columbidae. D'après Alan P. Peterson, c'est une espèce monotypique.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau mesure de 19 à 23 cm.
 Le mâle a le dessus du corps bleu gris foncé et le dessous plus pâle. Les ailes sont marquées par deux larges bandes pourpres et une plus petite pourpre bleuté sur les petites couvertures. La queue est grise, le bec noir et les pattes brunes.
@@ -545,7 +559,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau vit au sud-est du Brésil, à l'est du Paraguay et au nord-est de l'Argentine.
 </t>
@@ -576,7 +592,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce peuple les régions boisées, en particulier les forêts denses et leurs lisières.
 </t>
@@ -607,7 +625,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>synonyme
 Claravis geoffroyi.</t>
